--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-07-14.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-07-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2155"/>
+  <dimension ref="A1:G2150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54277,10 +54277,8 @@
           <t>100.0K</t>
         </is>
       </c>
-      <c r="G2068" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G2068" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2069">
@@ -54314,10 +54312,8 @@
           <t>4.2%</t>
         </is>
       </c>
-      <c r="G2069" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G2069" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2070">
@@ -54351,10 +54347,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G2070" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2070" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2071">
@@ -54388,10 +54382,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="G2071" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2071" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2072">
@@ -54425,10 +54417,8 @@
           <t>$-72B</t>
         </is>
       </c>
-      <c r="G2072" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2072" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2073">
@@ -54458,10 +54448,8 @@
           <t>$278.0B</t>
         </is>
       </c>
-      <c r="G2073" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2073" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2074">
@@ -54491,10 +54479,8 @@
           <t>$350.0B</t>
         </is>
       </c>
-      <c r="G2074" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2074" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2075">
@@ -54528,10 +54514,8 @@
           <t>240.0K</t>
         </is>
       </c>
-      <c r="G2075" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2075" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2076">
@@ -54561,10 +54545,8 @@
           <t>62.3%</t>
         </is>
       </c>
-      <c r="G2076" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2076" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2077">
@@ -54598,10 +54580,8 @@
           <t>34.3</t>
         </is>
       </c>
-      <c r="G2077" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2077" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2078">
@@ -54635,10 +54615,8 @@
           <t>1980.0K</t>
         </is>
       </c>
-      <c r="G2078" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2078" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2079">
@@ -54668,10 +54646,8 @@
           <t>0.0K</t>
         </is>
       </c>
-      <c r="G2079" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2079" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2080">
@@ -54701,10 +54677,8 @@
           <t>246.0K</t>
         </is>
       </c>
-      <c r="G2080" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2080" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2081">
@@ -54738,10 +54712,8 @@
           <t>-2.0K</t>
         </is>
       </c>
-      <c r="G2081" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2081" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2082">
@@ -54775,10 +54747,8 @@
           <t>100.0K</t>
         </is>
       </c>
-      <c r="G2082" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2082" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2083">
@@ -54808,10 +54778,8 @@
           <t>7.8%</t>
         </is>
       </c>
-      <c r="G2083" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2083" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2084">
@@ -54845,10 +54813,8 @@
           <t>52.8</t>
         </is>
       </c>
-      <c r="G2084" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2084" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2085">
@@ -54882,10 +54848,8 @@
           <t>53.1</t>
         </is>
       </c>
-      <c r="G2085" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2085" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2086">
@@ -54919,10 +54883,8 @@
           <t>49.7</t>
         </is>
       </c>
-      <c r="G2086" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G2086" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2087">
@@ -54956,10 +54918,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="G2087" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2087" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2088">
@@ -54985,10 +54945,8 @@
       </c>
       <c r="E2088" t="inlineStr"/>
       <c r="F2088" t="inlineStr"/>
-      <c r="G2088" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2088" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2089">
@@ -55014,10 +54972,8 @@
       </c>
       <c r="E2089" t="inlineStr"/>
       <c r="F2089" t="inlineStr"/>
-      <c r="G2089" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2089" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2090">
@@ -55047,10 +55003,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="G2090" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2090" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2091">
@@ -55080,10 +55034,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="G2091" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2091" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2092">
@@ -55113,10 +55065,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="G2092" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2092" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2093">
@@ -55146,10 +55096,8 @@
           <t>46.3</t>
         </is>
       </c>
-      <c r="G2093" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2093" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2094">
@@ -55179,10 +55127,8 @@
           <t>69.4</t>
         </is>
       </c>
-      <c r="G2094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2094" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2095">
@@ -55212,10 +55158,8 @@
         </is>
       </c>
       <c r="F2095" t="inlineStr"/>
-      <c r="G2095" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2095" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2096">
@@ -55233,10 +55177,8 @@
       <c r="D2096" t="inlineStr"/>
       <c r="E2096" t="inlineStr"/>
       <c r="F2096" t="inlineStr"/>
-      <c r="G2096" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2096" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2097">
@@ -55262,10 +55204,8 @@
       </c>
       <c r="E2097" t="inlineStr"/>
       <c r="F2097" t="inlineStr"/>
-      <c r="G2097" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2097" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2098">
@@ -55291,10 +55231,8 @@
       </c>
       <c r="E2098" t="inlineStr"/>
       <c r="F2098" t="inlineStr"/>
-      <c r="G2098" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2098" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2099">
@@ -55320,10 +55258,8 @@
       </c>
       <c r="E2099" t="inlineStr"/>
       <c r="F2099" t="inlineStr"/>
-      <c r="G2099" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2099" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2100">
@@ -55349,42 +55285,64 @@
       </c>
       <c r="E2100" t="inlineStr"/>
       <c r="F2100" t="inlineStr"/>
-      <c r="G2100" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2101">
       <c r="A2101" t="inlineStr">
         <is>
-          <t>Friday July 04 2025</t>
-        </is>
-      </c>
-      <c r="B2101" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B2101" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
       <c r="C2101" t="inlineStr"/>
-      <c r="D2101" t="inlineStr"/>
+      <c r="D2101" t="inlineStr">
+        <is>
+          <t>4.110%</t>
+        </is>
+      </c>
       <c r="E2101" t="inlineStr"/>
       <c r="F2101" t="inlineStr"/>
-      <c r="G2101" t="inlineStr"/>
+      <c r="G2101" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2102">
       <c r="A2102" t="inlineStr">
         <is>
-          <t>Saturday July 05 2025</t>
-        </is>
-      </c>
-      <c r="B2102" t="inlineStr"/>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B2102" t="inlineStr">
+        <is>
+          <t>Fed Balance SheetJUL/02</t>
+        </is>
+      </c>
       <c r="C2102" t="inlineStr"/>
-      <c r="D2102" t="inlineStr"/>
+      <c r="D2102" t="inlineStr">
+        <is>
+          <t>$6.67T</t>
+        </is>
+      </c>
       <c r="E2102" t="inlineStr"/>
       <c r="F2102" t="inlineStr"/>
-      <c r="G2102" t="inlineStr"/>
+      <c r="G2102" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2103">
       <c r="A2103" t="inlineStr">
         <is>
-          <t>Sunday July 06 2025</t>
+          <t>Tuesday July 08 2025</t>
         </is>
       </c>
       <c r="B2103" t="inlineStr"/>
@@ -55397,31 +55355,47 @@
     <row r="2104">
       <c r="A2104" t="inlineStr">
         <is>
-          <t>Monday July 07 2025</t>
-        </is>
-      </c>
-      <c r="B2104" t="inlineStr"/>
+          <t>05:00 AM</t>
+        </is>
+      </c>
+      <c r="B2104" t="inlineStr">
+        <is>
+          <t>NFIB Business Optimism IndexJUN</t>
+        </is>
+      </c>
       <c r="C2104" t="inlineStr"/>
-      <c r="D2104" t="inlineStr"/>
+      <c r="D2104" t="inlineStr">
+        <is>
+          <t>98.8</t>
+        </is>
+      </c>
       <c r="E2104" t="inlineStr"/>
-      <c r="F2104" t="inlineStr"/>
-      <c r="G2104" t="inlineStr"/>
+      <c r="F2104" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="G2104" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2105">
       <c r="A2105" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:55 AM</t>
         </is>
       </c>
       <c r="B2105" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Redbook YoYJUL/05</t>
         </is>
       </c>
       <c r="C2105" t="inlineStr"/>
       <c r="D2105" t="inlineStr">
         <is>
-          <t>4.235%</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="E2105" t="inlineStr"/>
@@ -55435,22 +55409,26 @@
     <row r="2106">
       <c r="A2106" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2106" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Consumer Inflation ExpectationsJUN</t>
         </is>
       </c>
       <c r="C2106" t="inlineStr"/>
       <c r="D2106" t="inlineStr">
         <is>
-          <t>4.110%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="E2106" t="inlineStr"/>
-      <c r="F2106" t="inlineStr"/>
+      <c r="F2106" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="G2106" t="inlineStr">
         <is>
           <t>3</t>
@@ -55460,18 +55438,18 @@
     <row r="2107">
       <c r="A2107" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2107" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJUL/02</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2107" t="inlineStr"/>
       <c r="D2107" t="inlineStr">
         <is>
-          <t>$6.67T</t>
+          <t>3.94%</t>
         </is>
       </c>
       <c r="E2107" t="inlineStr"/>
@@ -55485,37 +55463,49 @@
     <row r="2108">
       <c r="A2108" t="inlineStr">
         <is>
-          <t>Tuesday July 08 2025</t>
-        </is>
-      </c>
-      <c r="B2108" t="inlineStr"/>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B2108" t="inlineStr">
+        <is>
+          <t>3-Year Note Auction</t>
+        </is>
+      </c>
       <c r="C2108" t="inlineStr"/>
-      <c r="D2108" t="inlineStr"/>
+      <c r="D2108" t="inlineStr">
+        <is>
+          <t>3.972%</t>
+        </is>
+      </c>
       <c r="E2108" t="inlineStr"/>
       <c r="F2108" t="inlineStr"/>
-      <c r="G2108" t="inlineStr"/>
+      <c r="G2108" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2109">
       <c r="A2109" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2109" t="inlineStr">
         <is>
-          <t>NFIB Business Optimism IndexJUN</t>
+          <t>Consumer Credit ChangeMAY</t>
         </is>
       </c>
       <c r="C2109" t="inlineStr"/>
       <c r="D2109" t="inlineStr">
         <is>
-          <t>98.8</t>
+          <t>$17.87B</t>
         </is>
       </c>
       <c r="E2109" t="inlineStr"/>
       <c r="F2109" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>$12.1B</t>
         </is>
       </c>
       <c r="G2109" t="inlineStr">
@@ -55527,51 +55517,43 @@
     <row r="2110">
       <c r="A2110" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2110" t="inlineStr">
         <is>
-          <t>Redbook YoYJUL/05</t>
+          <t>API Crude Oil Stock ChangeJUL/04</t>
         </is>
       </c>
       <c r="C2110" t="inlineStr"/>
       <c r="D2110" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>0.680M</t>
         </is>
       </c>
       <c r="E2110" t="inlineStr"/>
       <c r="F2110" t="inlineStr"/>
       <c r="G2110" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2111">
-      <c r="A2111" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2111" t="inlineStr"/>
       <c r="B2111" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJUN</t>
+          <t>Used Car Prices MoMJUN</t>
         </is>
       </c>
       <c r="C2111" t="inlineStr"/>
       <c r="D2111" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>-1.4%</t>
         </is>
       </c>
       <c r="E2111" t="inlineStr"/>
-      <c r="F2111" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="F2111" t="inlineStr"/>
       <c r="G2111" t="inlineStr">
         <is>
           <t>3</t>
@@ -55579,20 +55561,16 @@
       </c>
     </row>
     <row r="2112">
-      <c r="A2112" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
+      <c r="A2112" t="inlineStr"/>
       <c r="B2112" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Used Car Prices YoYJUN</t>
         </is>
       </c>
       <c r="C2112" t="inlineStr"/>
       <c r="D2112" t="inlineStr">
         <is>
-          <t>3.94%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="E2112" t="inlineStr"/>
@@ -55606,93 +55584,81 @@
     <row r="2113">
       <c r="A2113" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2113" t="inlineStr">
-        <is>
-          <t>3-Year Note Auction</t>
-        </is>
-      </c>
+          <t>Wednesday July 09 2025</t>
+        </is>
+      </c>
+      <c r="B2113" t="inlineStr"/>
       <c r="C2113" t="inlineStr"/>
-      <c r="D2113" t="inlineStr">
-        <is>
-          <t>3.972%</t>
-        </is>
-      </c>
+      <c r="D2113" t="inlineStr"/>
       <c r="E2113" t="inlineStr"/>
       <c r="F2113" t="inlineStr"/>
-      <c r="G2113" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2113" t="inlineStr"/>
     </row>
     <row r="2114">
       <c r="A2114" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2114" t="inlineStr">
         <is>
-          <t>Consumer Credit ChangeMAY</t>
+          <t>MBA 30-Year Mortgage RateJUL/04</t>
         </is>
       </c>
       <c r="C2114" t="inlineStr"/>
       <c r="D2114" t="inlineStr">
         <is>
-          <t>$17.87B</t>
+          <t>6.79%</t>
         </is>
       </c>
       <c r="E2114" t="inlineStr"/>
-      <c r="F2114" t="inlineStr">
-        <is>
-          <t>$12.1B</t>
-        </is>
-      </c>
+      <c r="F2114" t="inlineStr"/>
       <c r="G2114" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2115">
       <c r="A2115" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2115" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJUL/04</t>
+          <t>MBA Mortgage ApplicationsJUL/04</t>
         </is>
       </c>
       <c r="C2115" t="inlineStr"/>
       <c r="D2115" t="inlineStr">
         <is>
-          <t>0.680M</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="E2115" t="inlineStr"/>
       <c r="F2115" t="inlineStr"/>
       <c r="G2115" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2116">
-      <c r="A2116" t="inlineStr"/>
+      <c r="A2116" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
       <c r="B2116" t="inlineStr">
         <is>
-          <t>Used Car Prices MoMJUN</t>
+          <t>MBA Mortgage Market IndexJUL/04</t>
         </is>
       </c>
       <c r="C2116" t="inlineStr"/>
       <c r="D2116" t="inlineStr">
         <is>
-          <t>-1.4%</t>
+          <t>257.5</t>
         </is>
       </c>
       <c r="E2116" t="inlineStr"/>
@@ -55704,16 +55670,20 @@
       </c>
     </row>
     <row r="2117">
-      <c r="A2117" t="inlineStr"/>
+      <c r="A2117" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
       <c r="B2117" t="inlineStr">
         <is>
-          <t>Used Car Prices YoYJUN</t>
+          <t>MBA Mortgage Refinance IndexJUL/04</t>
         </is>
       </c>
       <c r="C2117" t="inlineStr"/>
       <c r="D2117" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>759.7</t>
         </is>
       </c>
       <c r="E2117" t="inlineStr"/>
@@ -55727,106 +55697,122 @@
     <row r="2118">
       <c r="A2118" t="inlineStr">
         <is>
-          <t>Wednesday July 09 2025</t>
-        </is>
-      </c>
-      <c r="B2118" t="inlineStr"/>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B2118" t="inlineStr">
+        <is>
+          <t>MBA Purchase IndexJUL/04</t>
+        </is>
+      </c>
       <c r="C2118" t="inlineStr"/>
-      <c r="D2118" t="inlineStr"/>
+      <c r="D2118" t="inlineStr">
+        <is>
+          <t>165.3</t>
+        </is>
+      </c>
       <c r="E2118" t="inlineStr"/>
       <c r="F2118" t="inlineStr"/>
-      <c r="G2118" t="inlineStr"/>
+      <c r="G2118" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2119">
       <c r="A2119" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2119" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJUL/04</t>
+          <t>Wholesale Inventories MoMMAY</t>
         </is>
       </c>
       <c r="C2119" t="inlineStr"/>
       <c r="D2119" t="inlineStr">
         <is>
-          <t>6.79%</t>
-        </is>
-      </c>
-      <c r="E2119" t="inlineStr"/>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E2119" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F2119" t="inlineStr"/>
       <c r="G2119" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2120">
       <c r="A2120" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2120" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJUL/04</t>
+          <t>EIA Crude Oil Stocks ChangeJUL/04</t>
         </is>
       </c>
       <c r="C2120" t="inlineStr"/>
       <c r="D2120" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>3.845M</t>
         </is>
       </c>
       <c r="E2120" t="inlineStr"/>
       <c r="F2120" t="inlineStr"/>
       <c r="G2120" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2121">
       <c r="A2121" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2121" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJUL/04</t>
+          <t>EIA Gasoline Stocks ChangeJUL/04</t>
         </is>
       </c>
       <c r="C2121" t="inlineStr"/>
       <c r="D2121" t="inlineStr">
         <is>
-          <t>257.5</t>
+          <t>4.188M</t>
         </is>
       </c>
       <c r="E2121" t="inlineStr"/>
       <c r="F2121" t="inlineStr"/>
       <c r="G2121" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2122">
       <c r="A2122" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2122" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJUL/04</t>
+          <t>EIA Crude Oil Imports ChangeJUL/04</t>
         </is>
       </c>
       <c r="C2122" t="inlineStr"/>
       <c r="D2122" t="inlineStr">
         <is>
-          <t>759.7</t>
+          <t>2.94M</t>
         </is>
       </c>
       <c r="E2122" t="inlineStr"/>
@@ -55840,18 +55826,18 @@
     <row r="2123">
       <c r="A2123" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2123" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJUL/04</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJUL/04</t>
         </is>
       </c>
       <c r="C2123" t="inlineStr"/>
       <c r="D2123" t="inlineStr">
         <is>
-          <t>165.3</t>
+          <t>-1.493M</t>
         </is>
       </c>
       <c r="E2123" t="inlineStr"/>
@@ -55865,25 +55851,21 @@
     <row r="2124">
       <c r="A2124" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2124" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoMMAY</t>
+          <t>EIA Distillate Fuel Production ChangeJUL/04</t>
         </is>
       </c>
       <c r="C2124" t="inlineStr"/>
       <c r="D2124" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E2124" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+          <t>0.245M</t>
+        </is>
+      </c>
+      <c r="E2124" t="inlineStr"/>
       <c r="F2124" t="inlineStr"/>
       <c r="G2124" t="inlineStr">
         <is>
@@ -55899,20 +55881,20 @@
       </c>
       <c r="B2125" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJUL/04</t>
+          <t>EIA Distillate Stocks ChangeJUL/04</t>
         </is>
       </c>
       <c r="C2125" t="inlineStr"/>
       <c r="D2125" t="inlineStr">
         <is>
-          <t>3.845M</t>
+          <t>-1.71M</t>
         </is>
       </c>
       <c r="E2125" t="inlineStr"/>
       <c r="F2125" t="inlineStr"/>
       <c r="G2125" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -55924,20 +55906,20 @@
       </c>
       <c r="B2126" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJUL/04</t>
+          <t>EIA Gasoline Production ChangeJUL/04</t>
         </is>
       </c>
       <c r="C2126" t="inlineStr"/>
       <c r="D2126" t="inlineStr">
         <is>
-          <t>4.188M</t>
+          <t>-0.491M</t>
         </is>
       </c>
       <c r="E2126" t="inlineStr"/>
       <c r="F2126" t="inlineStr"/>
       <c r="G2126" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -55949,13 +55931,13 @@
       </c>
       <c r="B2127" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJUL/04</t>
+          <t>EIA Heating Oil Stocks ChangeJUL/04</t>
         </is>
       </c>
       <c r="C2127" t="inlineStr"/>
       <c r="D2127" t="inlineStr">
         <is>
-          <t>2.94M</t>
+          <t>-0.202M</t>
         </is>
       </c>
       <c r="E2127" t="inlineStr"/>
@@ -55974,13 +55956,13 @@
       </c>
       <c r="B2128" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJUL/04</t>
+          <t>EIA Refinery Crude Runs ChangeJUL/04</t>
         </is>
       </c>
       <c r="C2128" t="inlineStr"/>
       <c r="D2128" t="inlineStr">
         <is>
-          <t>-1.493M</t>
+          <t>0.118M</t>
         </is>
       </c>
       <c r="E2128" t="inlineStr"/>
@@ -55999,16 +55981,16 @@
       </c>
       <c r="B2129" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJUL/04</t>
+          <t>NY Fed Treasury Purchases Bill 0 to 1 yrs</t>
         </is>
       </c>
       <c r="C2129" t="inlineStr"/>
-      <c r="D2129" t="inlineStr">
-        <is>
-          <t>0.245M</t>
-        </is>
-      </c>
-      <c r="E2129" t="inlineStr"/>
+      <c r="D2129" t="inlineStr"/>
+      <c r="E2129" t="inlineStr">
+        <is>
+          <t>$75 million</t>
+        </is>
+      </c>
       <c r="F2129" t="inlineStr"/>
       <c r="G2129" t="inlineStr">
         <is>
@@ -56019,18 +56001,18 @@
     <row r="2130">
       <c r="A2130" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2130" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJUL/04</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2130" t="inlineStr"/>
       <c r="D2130" t="inlineStr">
         <is>
-          <t>-1.71M</t>
+          <t>4.185%</t>
         </is>
       </c>
       <c r="E2130" t="inlineStr"/>
@@ -56044,18 +56026,18 @@
     <row r="2131">
       <c r="A2131" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2131" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJUL/04</t>
+          <t>10-Year Note Auction</t>
         </is>
       </c>
       <c r="C2131" t="inlineStr"/>
       <c r="D2131" t="inlineStr">
         <is>
-          <t>-0.491M</t>
+          <t>4.421%</t>
         </is>
       </c>
       <c r="E2131" t="inlineStr"/>
@@ -56069,97 +56051,89 @@
     <row r="2132">
       <c r="A2132" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2132" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJUL/04</t>
+          <t>FOMC Minutes</t>
         </is>
       </c>
       <c r="C2132" t="inlineStr"/>
-      <c r="D2132" t="inlineStr">
-        <is>
-          <t>-0.202M</t>
-        </is>
-      </c>
+      <c r="D2132" t="inlineStr"/>
       <c r="E2132" t="inlineStr"/>
       <c r="F2132" t="inlineStr"/>
       <c r="G2132" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2133">
       <c r="A2133" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B2133" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJUL/04</t>
-        </is>
-      </c>
+          <t>Thursday July 10 2025</t>
+        </is>
+      </c>
+      <c r="B2133" t="inlineStr"/>
       <c r="C2133" t="inlineStr"/>
-      <c r="D2133" t="inlineStr">
-        <is>
-          <t>0.118M</t>
-        </is>
-      </c>
+      <c r="D2133" t="inlineStr"/>
       <c r="E2133" t="inlineStr"/>
       <c r="F2133" t="inlineStr"/>
-      <c r="G2133" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2133" t="inlineStr"/>
     </row>
     <row r="2134">
       <c r="A2134" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2134" t="inlineStr">
         <is>
-          <t>NY Fed Treasury Purchases Bill 0 to 1 yrs</t>
+          <t>Initial Jobless ClaimsJUL/05</t>
         </is>
       </c>
       <c r="C2134" t="inlineStr"/>
-      <c r="D2134" t="inlineStr"/>
-      <c r="E2134" t="inlineStr">
-        <is>
-          <t>$75 million</t>
-        </is>
-      </c>
-      <c r="F2134" t="inlineStr"/>
+      <c r="D2134" t="inlineStr">
+        <is>
+          <t>233K</t>
+        </is>
+      </c>
+      <c r="E2134" t="inlineStr"/>
+      <c r="F2134" t="inlineStr">
+        <is>
+          <t>245.0K</t>
+        </is>
+      </c>
       <c r="G2134" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2135">
       <c r="A2135" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2135" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Continuing Jobless ClaimsJUN/28</t>
         </is>
       </c>
       <c r="C2135" t="inlineStr"/>
       <c r="D2135" t="inlineStr">
         <is>
-          <t>4.185%</t>
+          <t>1964K</t>
         </is>
       </c>
       <c r="E2135" t="inlineStr"/>
-      <c r="F2135" t="inlineStr"/>
+      <c r="F2135" t="inlineStr">
+        <is>
+          <t>1967.0K</t>
+        </is>
+      </c>
       <c r="G2135" t="inlineStr">
         <is>
           <t>3</t>
@@ -56169,22 +56143,26 @@
     <row r="2136">
       <c r="A2136" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2136" t="inlineStr">
         <is>
-          <t>10-Year Note Auction</t>
+          <t>Jobless Claims 4-week AverageJUL/05</t>
         </is>
       </c>
       <c r="C2136" t="inlineStr"/>
       <c r="D2136" t="inlineStr">
         <is>
-          <t>4.421%</t>
+          <t>241.5K</t>
         </is>
       </c>
       <c r="E2136" t="inlineStr"/>
-      <c r="F2136" t="inlineStr"/>
+      <c r="F2136" t="inlineStr">
+        <is>
+          <t>243.0K</t>
+        </is>
+      </c>
       <c r="G2136" t="inlineStr">
         <is>
           <t>3</t>
@@ -56194,89 +56172,97 @@
     <row r="2137">
       <c r="A2137" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2137" t="inlineStr">
         <is>
-          <t>FOMC Minutes</t>
+          <t>EIA Natural Gas Stocks ChangeJUL/04</t>
         </is>
       </c>
       <c r="C2137" t="inlineStr"/>
-      <c r="D2137" t="inlineStr"/>
+      <c r="D2137" t="inlineStr">
+        <is>
+          <t>55Bcf</t>
+        </is>
+      </c>
       <c r="E2137" t="inlineStr"/>
       <c r="F2137" t="inlineStr"/>
       <c r="G2137" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2138">
       <c r="A2138" t="inlineStr">
         <is>
-          <t>Thursday July 10 2025</t>
-        </is>
-      </c>
-      <c r="B2138" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B2138" t="inlineStr">
+        <is>
+          <t>4-Week Bill Auction</t>
+        </is>
+      </c>
       <c r="C2138" t="inlineStr"/>
-      <c r="D2138" t="inlineStr"/>
+      <c r="D2138" t="inlineStr">
+        <is>
+          <t>4.240%</t>
+        </is>
+      </c>
       <c r="E2138" t="inlineStr"/>
       <c r="F2138" t="inlineStr"/>
-      <c r="G2138" t="inlineStr"/>
+      <c r="G2138" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2139">
       <c r="A2139" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2139" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJUL/05</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2139" t="inlineStr"/>
       <c r="D2139" t="inlineStr">
         <is>
-          <t>233K</t>
+          <t>4.300%</t>
         </is>
       </c>
       <c r="E2139" t="inlineStr"/>
-      <c r="F2139" t="inlineStr">
-        <is>
-          <t>245.0K</t>
-        </is>
-      </c>
+      <c r="F2139" t="inlineStr"/>
       <c r="G2139" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2140">
       <c r="A2140" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2140" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsJUN/28</t>
+          <t>15-Year Mortgage RateJUL/10</t>
         </is>
       </c>
       <c r="C2140" t="inlineStr"/>
       <c r="D2140" t="inlineStr">
         <is>
-          <t>1964K</t>
+          <t>5.8%</t>
         </is>
       </c>
       <c r="E2140" t="inlineStr"/>
-      <c r="F2140" t="inlineStr">
-        <is>
-          <t>1967.0K</t>
-        </is>
-      </c>
+      <c r="F2140" t="inlineStr"/>
       <c r="G2140" t="inlineStr">
         <is>
           <t>3</t>
@@ -56286,26 +56272,22 @@
     <row r="2141">
       <c r="A2141" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2141" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJUL/05</t>
+          <t>30-Year Mortgage RateJUL/10</t>
         </is>
       </c>
       <c r="C2141" t="inlineStr"/>
       <c r="D2141" t="inlineStr">
         <is>
-          <t>241.5K</t>
+          <t>6.67%</t>
         </is>
       </c>
       <c r="E2141" t="inlineStr"/>
-      <c r="F2141" t="inlineStr">
-        <is>
-          <t>243.0K</t>
-        </is>
-      </c>
+      <c r="F2141" t="inlineStr"/>
       <c r="G2141" t="inlineStr">
         <is>
           <t>3</t>
@@ -56315,18 +56297,18 @@
     <row r="2142">
       <c r="A2142" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2142" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJUL/04</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C2142" t="inlineStr"/>
       <c r="D2142" t="inlineStr">
         <is>
-          <t>55Bcf</t>
+          <t>4.844%</t>
         </is>
       </c>
       <c r="E2142" t="inlineStr"/>
@@ -56340,20 +56322,16 @@
     <row r="2143">
       <c r="A2143" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2143" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>Fed Balance SheetJUL/09</t>
         </is>
       </c>
       <c r="C2143" t="inlineStr"/>
-      <c r="D2143" t="inlineStr">
-        <is>
-          <t>4.240%</t>
-        </is>
-      </c>
+      <c r="D2143" t="inlineStr"/>
       <c r="E2143" t="inlineStr"/>
       <c r="F2143" t="inlineStr"/>
       <c r="G2143" t="inlineStr">
@@ -56365,27 +56343,15 @@
     <row r="2144">
       <c r="A2144" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2144" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
+          <t>Friday July 11 2025</t>
+        </is>
+      </c>
+      <c r="B2144" t="inlineStr"/>
       <c r="C2144" t="inlineStr"/>
-      <c r="D2144" t="inlineStr">
-        <is>
-          <t>4.300%</t>
-        </is>
-      </c>
+      <c r="D2144" t="inlineStr"/>
       <c r="E2144" t="inlineStr"/>
       <c r="F2144" t="inlineStr"/>
-      <c r="G2144" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2144" t="inlineStr"/>
     </row>
     <row r="2145">
       <c r="A2145" t="inlineStr">
@@ -56395,15 +56361,11 @@
       </c>
       <c r="B2145" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateJUL/10</t>
+          <t>WASDE Report</t>
         </is>
       </c>
       <c r="C2145" t="inlineStr"/>
-      <c r="D2145" t="inlineStr">
-        <is>
-          <t>5.8%</t>
-        </is>
-      </c>
+      <c r="D2145" t="inlineStr"/>
       <c r="E2145" t="inlineStr"/>
       <c r="F2145" t="inlineStr"/>
       <c r="G2145" t="inlineStr">
@@ -56415,18 +56377,18 @@
     <row r="2146">
       <c r="A2146" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2146" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateJUL/10</t>
+          <t>Baker Hughes Oil Rig CountJUL/11</t>
         </is>
       </c>
       <c r="C2146" t="inlineStr"/>
       <c r="D2146" t="inlineStr">
         <is>
-          <t>6.67%</t>
+          <t>425</t>
         </is>
       </c>
       <c r="E2146" t="inlineStr"/>
@@ -56445,13 +56407,13 @@
       </c>
       <c r="B2147" t="inlineStr">
         <is>
-          <t>30-Year Bond Auction</t>
+          <t>Baker Hughes Total Rigs CountJUL/11</t>
         </is>
       </c>
       <c r="C2147" t="inlineStr"/>
       <c r="D2147" t="inlineStr">
         <is>
-          <t>4.844%</t>
+          <t>539</t>
         </is>
       </c>
       <c r="E2147" t="inlineStr"/>
@@ -56465,28 +56427,36 @@
     <row r="2148">
       <c r="A2148" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2148" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJUL/09</t>
+          <t>Monthly Budget StatementJUN</t>
         </is>
       </c>
       <c r="C2148" t="inlineStr"/>
-      <c r="D2148" t="inlineStr"/>
+      <c r="D2148" t="inlineStr">
+        <is>
+          <t>$-316B</t>
+        </is>
+      </c>
       <c r="E2148" t="inlineStr"/>
-      <c r="F2148" t="inlineStr"/>
+      <c r="F2148" t="inlineStr">
+        <is>
+          <t>$-350.0B</t>
+        </is>
+      </c>
       <c r="G2148" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2149">
       <c r="A2149" t="inlineStr">
         <is>
-          <t>Friday July 11 2025</t>
+          <t>Sunday July 13 2025</t>
         </is>
       </c>
       <c r="B2149" t="inlineStr"/>
@@ -56499,128 +56469,15 @@
     <row r="2150">
       <c r="A2150" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2150" t="inlineStr">
-        <is>
-          <t>WASDE Report</t>
-        </is>
-      </c>
+          <t>Monday July 14 2025</t>
+        </is>
+      </c>
+      <c r="B2150" t="inlineStr"/>
       <c r="C2150" t="inlineStr"/>
       <c r="D2150" t="inlineStr"/>
       <c r="E2150" t="inlineStr"/>
       <c r="F2150" t="inlineStr"/>
-      <c r="G2150" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2151">
-      <c r="A2151" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2151" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJUL/11</t>
-        </is>
-      </c>
-      <c r="C2151" t="inlineStr"/>
-      <c r="D2151" t="inlineStr">
-        <is>
-          <t>425</t>
-        </is>
-      </c>
-      <c r="E2151" t="inlineStr"/>
-      <c r="F2151" t="inlineStr"/>
-      <c r="G2151" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2152">
-      <c r="A2152" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2152" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJUL/11</t>
-        </is>
-      </c>
-      <c r="C2152" t="inlineStr"/>
-      <c r="D2152" t="inlineStr">
-        <is>
-          <t>539</t>
-        </is>
-      </c>
-      <c r="E2152" t="inlineStr"/>
-      <c r="F2152" t="inlineStr"/>
-      <c r="G2152" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2153">
-      <c r="A2153" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B2153" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementJUN</t>
-        </is>
-      </c>
-      <c r="C2153" t="inlineStr"/>
-      <c r="D2153" t="inlineStr">
-        <is>
-          <t>$-316B</t>
-        </is>
-      </c>
-      <c r="E2153" t="inlineStr"/>
-      <c r="F2153" t="inlineStr">
-        <is>
-          <t>$-350.0B</t>
-        </is>
-      </c>
-      <c r="G2153" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2154">
-      <c r="A2154" t="inlineStr">
-        <is>
-          <t>Sunday July 13 2025</t>
-        </is>
-      </c>
-      <c r="B2154" t="inlineStr"/>
-      <c r="C2154" t="inlineStr"/>
-      <c r="D2154" t="inlineStr"/>
-      <c r="E2154" t="inlineStr"/>
-      <c r="F2154" t="inlineStr"/>
-      <c r="G2154" t="inlineStr"/>
-    </row>
-    <row r="2155">
-      <c r="A2155" t="inlineStr">
-        <is>
-          <t>Monday July 14 2025</t>
-        </is>
-      </c>
-      <c r="B2155" t="inlineStr"/>
-      <c r="C2155" t="inlineStr"/>
-      <c r="D2155" t="inlineStr"/>
-      <c r="E2155" t="inlineStr"/>
-      <c r="F2155" t="inlineStr"/>
-      <c r="G2155" t="inlineStr"/>
+      <c r="G2150" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-07-14.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-07-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2122"/>
+  <dimension ref="A1:G2123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54249,7 +54249,7 @@
     <row r="2068">
       <c r="A2068" t="inlineStr">
         <is>
-          <t>Friday July 04 2025</t>
+          <t>Sunday July 06 2025</t>
         </is>
       </c>
       <c r="B2068" t="inlineStr"/>
@@ -54262,7 +54262,7 @@
     <row r="2069">
       <c r="A2069" t="inlineStr">
         <is>
-          <t>Saturday July 05 2025</t>
+          <t>Monday July 07 2025</t>
         </is>
       </c>
       <c r="B2069" t="inlineStr"/>
@@ -54275,44 +54275,68 @@
     <row r="2070">
       <c r="A2070" t="inlineStr">
         <is>
-          <t>Sunday July 06 2025</t>
-        </is>
-      </c>
-      <c r="B2070" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B2070" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
       <c r="C2070" t="inlineStr"/>
-      <c r="D2070" t="inlineStr"/>
+      <c r="D2070" t="inlineStr">
+        <is>
+          <t>4.235%</t>
+        </is>
+      </c>
       <c r="E2070" t="inlineStr"/>
       <c r="F2070" t="inlineStr"/>
-      <c r="G2070" t="inlineStr"/>
+      <c r="G2070" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2071">
       <c r="A2071" t="inlineStr">
         <is>
-          <t>Monday July 07 2025</t>
-        </is>
-      </c>
-      <c r="B2071" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B2071" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
       <c r="C2071" t="inlineStr"/>
-      <c r="D2071" t="inlineStr"/>
+      <c r="D2071" t="inlineStr">
+        <is>
+          <t>4.110%</t>
+        </is>
+      </c>
       <c r="E2071" t="inlineStr"/>
       <c r="F2071" t="inlineStr"/>
-      <c r="G2071" t="inlineStr"/>
+      <c r="G2071" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2072">
       <c r="A2072" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2072" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Fed Balance SheetJUL/02</t>
         </is>
       </c>
       <c r="C2072" t="inlineStr"/>
       <c r="D2072" t="inlineStr">
         <is>
-          <t>4.235%</t>
+          <t>$6.67T</t>
         </is>
       </c>
       <c r="E2072" t="inlineStr"/>
@@ -54326,47 +54350,39 @@
     <row r="2073">
       <c r="A2073" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2073" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
+          <t>Tuesday July 08 2025</t>
+        </is>
+      </c>
+      <c r="B2073" t="inlineStr"/>
       <c r="C2073" t="inlineStr"/>
-      <c r="D2073" t="inlineStr">
-        <is>
-          <t>4.110%</t>
-        </is>
-      </c>
+      <c r="D2073" t="inlineStr"/>
       <c r="E2073" t="inlineStr"/>
       <c r="F2073" t="inlineStr"/>
-      <c r="G2073" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2073" t="inlineStr"/>
     </row>
     <row r="2074">
       <c r="A2074" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2074" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJUL/02</t>
+          <t>NFIB Business Optimism IndexJUN</t>
         </is>
       </c>
       <c r="C2074" t="inlineStr"/>
       <c r="D2074" t="inlineStr">
         <is>
-          <t>$6.67T</t>
+          <t>98.8</t>
         </is>
       </c>
       <c r="E2074" t="inlineStr"/>
-      <c r="F2074" t="inlineStr"/>
+      <c r="F2074" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
       <c r="G2074" t="inlineStr">
         <is>
           <t>3</t>
@@ -54376,37 +54392,49 @@
     <row r="2075">
       <c r="A2075" t="inlineStr">
         <is>
-          <t>Tuesday July 08 2025</t>
-        </is>
-      </c>
-      <c r="B2075" t="inlineStr"/>
+          <t>07:55 AM</t>
+        </is>
+      </c>
+      <c r="B2075" t="inlineStr">
+        <is>
+          <t>Redbook YoYJUL/05</t>
+        </is>
+      </c>
       <c r="C2075" t="inlineStr"/>
-      <c r="D2075" t="inlineStr"/>
+      <c r="D2075" t="inlineStr">
+        <is>
+          <t>4.9%</t>
+        </is>
+      </c>
       <c r="E2075" t="inlineStr"/>
       <c r="F2075" t="inlineStr"/>
-      <c r="G2075" t="inlineStr"/>
+      <c r="G2075" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2076">
       <c r="A2076" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2076" t="inlineStr">
         <is>
-          <t>NFIB Business Optimism IndexJUN</t>
+          <t>Consumer Inflation ExpectationsJUN</t>
         </is>
       </c>
       <c r="C2076" t="inlineStr"/>
       <c r="D2076" t="inlineStr">
         <is>
-          <t>98.8</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="E2076" t="inlineStr"/>
       <c r="F2076" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="G2076" t="inlineStr">
@@ -54418,18 +54446,18 @@
     <row r="2077">
       <c r="A2077" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2077" t="inlineStr">
         <is>
-          <t>Redbook YoYJUL/05</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2077" t="inlineStr"/>
       <c r="D2077" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>3.94%</t>
         </is>
       </c>
       <c r="E2077" t="inlineStr"/>
@@ -54443,26 +54471,22 @@
     <row r="2078">
       <c r="A2078" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2078" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJUN</t>
+          <t>3-Year Note Auction</t>
         </is>
       </c>
       <c r="C2078" t="inlineStr"/>
       <c r="D2078" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>3.972%</t>
         </is>
       </c>
       <c r="E2078" t="inlineStr"/>
-      <c r="F2078" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="F2078" t="inlineStr"/>
       <c r="G2078" t="inlineStr">
         <is>
           <t>3</t>
@@ -54472,22 +54496,30 @@
     <row r="2079">
       <c r="A2079" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2079" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Consumer Credit ChangeMAY</t>
         </is>
       </c>
       <c r="C2079" t="inlineStr"/>
       <c r="D2079" t="inlineStr">
         <is>
-          <t>3.94%</t>
-        </is>
-      </c>
-      <c r="E2079" t="inlineStr"/>
-      <c r="F2079" t="inlineStr"/>
+          <t>$17.87B</t>
+        </is>
+      </c>
+      <c r="E2079" t="inlineStr">
+        <is>
+          <t>$10.5B</t>
+        </is>
+      </c>
+      <c r="F2079" t="inlineStr">
+        <is>
+          <t>$12.1B</t>
+        </is>
+      </c>
       <c r="G2079" t="inlineStr">
         <is>
           <t>3</t>
@@ -54497,55 +54529,43 @@
     <row r="2080">
       <c r="A2080" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2080" t="inlineStr">
         <is>
-          <t>3-Year Note Auction</t>
+          <t>API Crude Oil Stock ChangeJUL/04</t>
         </is>
       </c>
       <c r="C2080" t="inlineStr"/>
       <c r="D2080" t="inlineStr">
         <is>
-          <t>3.972%</t>
+          <t>0.680M</t>
         </is>
       </c>
       <c r="E2080" t="inlineStr"/>
       <c r="F2080" t="inlineStr"/>
       <c r="G2080" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2081">
-      <c r="A2081" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
+      <c r="A2081" t="inlineStr"/>
       <c r="B2081" t="inlineStr">
         <is>
-          <t>Consumer Credit ChangeMAY</t>
+          <t>Used Car Prices MoMJUN</t>
         </is>
       </c>
       <c r="C2081" t="inlineStr"/>
       <c r="D2081" t="inlineStr">
         <is>
-          <t>$17.87B</t>
-        </is>
-      </c>
-      <c r="E2081" t="inlineStr">
-        <is>
-          <t>$10.5B</t>
-        </is>
-      </c>
-      <c r="F2081" t="inlineStr">
-        <is>
-          <t>$12.1B</t>
-        </is>
-      </c>
+          <t>-1.4%</t>
+        </is>
+      </c>
+      <c r="E2081" t="inlineStr"/>
+      <c r="F2081" t="inlineStr"/>
       <c r="G2081" t="inlineStr">
         <is>
           <t>3</t>
@@ -54553,84 +54573,88 @@
       </c>
     </row>
     <row r="2082">
-      <c r="A2082" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
+      <c r="A2082" t="inlineStr"/>
       <c r="B2082" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJUL/04</t>
+          <t>Used Car Prices YoYJUN</t>
         </is>
       </c>
       <c r="C2082" t="inlineStr"/>
       <c r="D2082" t="inlineStr">
         <is>
-          <t>0.680M</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="E2082" t="inlineStr"/>
       <c r="F2082" t="inlineStr"/>
       <c r="G2082" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2083">
-      <c r="A2083" t="inlineStr"/>
-      <c r="B2083" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMJUN</t>
-        </is>
-      </c>
+      <c r="A2083" t="inlineStr">
+        <is>
+          <t>Wednesday July 09 2025</t>
+        </is>
+      </c>
+      <c r="B2083" t="inlineStr"/>
       <c r="C2083" t="inlineStr"/>
-      <c r="D2083" t="inlineStr">
-        <is>
-          <t>-1.4%</t>
-        </is>
-      </c>
+      <c r="D2083" t="inlineStr"/>
       <c r="E2083" t="inlineStr"/>
       <c r="F2083" t="inlineStr"/>
-      <c r="G2083" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2083" t="inlineStr"/>
     </row>
     <row r="2084">
-      <c r="A2084" t="inlineStr"/>
+      <c r="A2084" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
       <c r="B2084" t="inlineStr">
         <is>
-          <t>Used Car Prices YoYJUN</t>
+          <t>MBA 30-Year Mortgage RateJUL/04</t>
         </is>
       </c>
       <c r="C2084" t="inlineStr"/>
       <c r="D2084" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>6.79%</t>
         </is>
       </c>
       <c r="E2084" t="inlineStr"/>
       <c r="F2084" t="inlineStr"/>
       <c r="G2084" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2085">
       <c r="A2085" t="inlineStr">
         <is>
-          <t>Wednesday July 09 2025</t>
-        </is>
-      </c>
-      <c r="B2085" t="inlineStr"/>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B2085" t="inlineStr">
+        <is>
+          <t>MBA Mortgage ApplicationsJUL/04</t>
+        </is>
+      </c>
       <c r="C2085" t="inlineStr"/>
-      <c r="D2085" t="inlineStr"/>
+      <c r="D2085" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="E2085" t="inlineStr"/>
       <c r="F2085" t="inlineStr"/>
-      <c r="G2085" t="inlineStr"/>
+      <c r="G2085" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2086">
       <c r="A2086" t="inlineStr">
@@ -54640,20 +54664,20 @@
       </c>
       <c r="B2086" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJUL/04</t>
+          <t>MBA Mortgage Market IndexJUL/04</t>
         </is>
       </c>
       <c r="C2086" t="inlineStr"/>
       <c r="D2086" t="inlineStr">
         <is>
-          <t>6.79%</t>
+          <t>257.5</t>
         </is>
       </c>
       <c r="E2086" t="inlineStr"/>
       <c r="F2086" t="inlineStr"/>
       <c r="G2086" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -54665,13 +54689,13 @@
       </c>
       <c r="B2087" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJUL/04</t>
+          <t>MBA Mortgage Refinance IndexJUL/04</t>
         </is>
       </c>
       <c r="C2087" t="inlineStr"/>
       <c r="D2087" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>759.7</t>
         </is>
       </c>
       <c r="E2087" t="inlineStr"/>
@@ -54690,13 +54714,13 @@
       </c>
       <c r="B2088" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJUL/04</t>
+          <t>MBA Purchase IndexJUL/04</t>
         </is>
       </c>
       <c r="C2088" t="inlineStr"/>
       <c r="D2088" t="inlineStr">
         <is>
-          <t>257.5</t>
+          <t>165.3</t>
         </is>
       </c>
       <c r="E2088" t="inlineStr"/>
@@ -54710,22 +54734,30 @@
     <row r="2089">
       <c r="A2089" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2089" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJUL/04</t>
+          <t>Wholesale Inventories MoMMAY</t>
         </is>
       </c>
       <c r="C2089" t="inlineStr"/>
       <c r="D2089" t="inlineStr">
         <is>
-          <t>759.7</t>
-        </is>
-      </c>
-      <c r="E2089" t="inlineStr"/>
-      <c r="F2089" t="inlineStr"/>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E2089" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F2089" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="G2089" t="inlineStr">
         <is>
           <t>3</t>
@@ -54735,58 +54767,50 @@
     <row r="2090">
       <c r="A2090" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2090" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJUL/04</t>
+          <t>EIA Crude Oil Stocks ChangeJUL/04</t>
         </is>
       </c>
       <c r="C2090" t="inlineStr"/>
       <c r="D2090" t="inlineStr">
         <is>
-          <t>165.3</t>
+          <t>3.845M</t>
         </is>
       </c>
       <c r="E2090" t="inlineStr"/>
       <c r="F2090" t="inlineStr"/>
       <c r="G2090" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2091">
       <c r="A2091" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2091" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoMMAY</t>
+          <t>EIA Gasoline Stocks ChangeJUL/04</t>
         </is>
       </c>
       <c r="C2091" t="inlineStr"/>
       <c r="D2091" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E2091" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F2091" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+          <t>4.188M</t>
+        </is>
+      </c>
+      <c r="E2091" t="inlineStr"/>
+      <c r="F2091" t="inlineStr"/>
       <c r="G2091" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -54798,20 +54822,20 @@
       </c>
       <c r="B2092" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJUL/04</t>
+          <t>EIA Crude Oil Imports ChangeJUL/04</t>
         </is>
       </c>
       <c r="C2092" t="inlineStr"/>
       <c r="D2092" t="inlineStr">
         <is>
-          <t>3.845M</t>
+          <t>2.94M</t>
         </is>
       </c>
       <c r="E2092" t="inlineStr"/>
       <c r="F2092" t="inlineStr"/>
       <c r="G2092" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -54823,20 +54847,20 @@
       </c>
       <c r="B2093" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJUL/04</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJUL/04</t>
         </is>
       </c>
       <c r="C2093" t="inlineStr"/>
       <c r="D2093" t="inlineStr">
         <is>
-          <t>4.188M</t>
+          <t>-1.493M</t>
         </is>
       </c>
       <c r="E2093" t="inlineStr"/>
       <c r="F2093" t="inlineStr"/>
       <c r="G2093" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -54848,13 +54872,13 @@
       </c>
       <c r="B2094" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJUL/04</t>
+          <t>EIA Distillate Fuel Production ChangeJUL/04</t>
         </is>
       </c>
       <c r="C2094" t="inlineStr"/>
       <c r="D2094" t="inlineStr">
         <is>
-          <t>2.94M</t>
+          <t>0.245M</t>
         </is>
       </c>
       <c r="E2094" t="inlineStr"/>
@@ -54873,13 +54897,13 @@
       </c>
       <c r="B2095" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJUL/04</t>
+          <t>EIA Distillate Stocks ChangeJUL/04</t>
         </is>
       </c>
       <c r="C2095" t="inlineStr"/>
       <c r="D2095" t="inlineStr">
         <is>
-          <t>-1.493M</t>
+          <t>-1.71M</t>
         </is>
       </c>
       <c r="E2095" t="inlineStr"/>
@@ -54898,13 +54922,13 @@
       </c>
       <c r="B2096" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJUL/04</t>
+          <t>EIA Gasoline Production ChangeJUL/04</t>
         </is>
       </c>
       <c r="C2096" t="inlineStr"/>
       <c r="D2096" t="inlineStr">
         <is>
-          <t>0.245M</t>
+          <t>-0.491M</t>
         </is>
       </c>
       <c r="E2096" t="inlineStr"/>
@@ -54923,13 +54947,13 @@
       </c>
       <c r="B2097" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJUL/04</t>
+          <t>EIA Heating Oil Stocks ChangeJUL/04</t>
         </is>
       </c>
       <c r="C2097" t="inlineStr"/>
       <c r="D2097" t="inlineStr">
         <is>
-          <t>-1.71M</t>
+          <t>-0.202M</t>
         </is>
       </c>
       <c r="E2097" t="inlineStr"/>
@@ -54948,13 +54972,13 @@
       </c>
       <c r="B2098" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJUL/04</t>
+          <t>EIA Refinery Crude Runs ChangeJUL/04</t>
         </is>
       </c>
       <c r="C2098" t="inlineStr"/>
       <c r="D2098" t="inlineStr">
         <is>
-          <t>-0.491M</t>
+          <t>0.118M</t>
         </is>
       </c>
       <c r="E2098" t="inlineStr"/>
@@ -54973,16 +54997,16 @@
       </c>
       <c r="B2099" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJUL/04</t>
+          <t>NY Fed Treasury Purchases Bill 0 to 1 yrs</t>
         </is>
       </c>
       <c r="C2099" t="inlineStr"/>
-      <c r="D2099" t="inlineStr">
-        <is>
-          <t>-0.202M</t>
-        </is>
-      </c>
-      <c r="E2099" t="inlineStr"/>
+      <c r="D2099" t="inlineStr"/>
+      <c r="E2099" t="inlineStr">
+        <is>
+          <t>$75 million</t>
+        </is>
+      </c>
       <c r="F2099" t="inlineStr"/>
       <c r="G2099" t="inlineStr">
         <is>
@@ -54993,18 +55017,18 @@
     <row r="2100">
       <c r="A2100" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2100" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJUL/04</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2100" t="inlineStr"/>
       <c r="D2100" t="inlineStr">
         <is>
-          <t>0.118M</t>
+          <t>4.185%</t>
         </is>
       </c>
       <c r="E2100" t="inlineStr"/>
@@ -55018,21 +55042,21 @@
     <row r="2101">
       <c r="A2101" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2101" t="inlineStr">
         <is>
-          <t>NY Fed Treasury Purchases Bill 0 to 1 yrs</t>
+          <t>10-Year Note Auction</t>
         </is>
       </c>
       <c r="C2101" t="inlineStr"/>
-      <c r="D2101" t="inlineStr"/>
-      <c r="E2101" t="inlineStr">
-        <is>
-          <t>$75 million</t>
-        </is>
-      </c>
+      <c r="D2101" t="inlineStr">
+        <is>
+          <t>4.421%</t>
+        </is>
+      </c>
+      <c r="E2101" t="inlineStr"/>
       <c r="F2101" t="inlineStr"/>
       <c r="G2101" t="inlineStr">
         <is>
@@ -55043,86 +55067,98 @@
     <row r="2102">
       <c r="A2102" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2102" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>FOMC Minutes</t>
         </is>
       </c>
       <c r="C2102" t="inlineStr"/>
-      <c r="D2102" t="inlineStr">
-        <is>
-          <t>4.185%</t>
-        </is>
-      </c>
+      <c r="D2102" t="inlineStr"/>
       <c r="E2102" t="inlineStr"/>
       <c r="F2102" t="inlineStr"/>
       <c r="G2102" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2103">
       <c r="A2103" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2103" t="inlineStr">
-        <is>
-          <t>10-Year Note Auction</t>
-        </is>
-      </c>
+          <t>Thursday July 10 2025</t>
+        </is>
+      </c>
+      <c r="B2103" t="inlineStr"/>
       <c r="C2103" t="inlineStr"/>
-      <c r="D2103" t="inlineStr">
-        <is>
-          <t>4.421%</t>
-        </is>
-      </c>
+      <c r="D2103" t="inlineStr"/>
       <c r="E2103" t="inlineStr"/>
       <c r="F2103" t="inlineStr"/>
-      <c r="G2103" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2103" t="inlineStr"/>
     </row>
     <row r="2104">
       <c r="A2104" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2104" t="inlineStr">
         <is>
-          <t>FOMC Minutes</t>
+          <t>Initial Jobless ClaimsJUL/05</t>
         </is>
       </c>
       <c r="C2104" t="inlineStr"/>
-      <c r="D2104" t="inlineStr"/>
-      <c r="E2104" t="inlineStr"/>
-      <c r="F2104" t="inlineStr"/>
+      <c r="D2104" t="inlineStr">
+        <is>
+          <t>233K</t>
+        </is>
+      </c>
+      <c r="E2104" t="inlineStr">
+        <is>
+          <t>235K</t>
+        </is>
+      </c>
+      <c r="F2104" t="inlineStr">
+        <is>
+          <t>245.0K</t>
+        </is>
+      </c>
       <c r="G2104" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2105">
       <c r="A2105" t="inlineStr">
         <is>
-          <t>Thursday July 10 2025</t>
-        </is>
-      </c>
-      <c r="B2105" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B2105" t="inlineStr">
+        <is>
+          <t>Continuing Jobless ClaimsJUN/28</t>
+        </is>
+      </c>
       <c r="C2105" t="inlineStr"/>
-      <c r="D2105" t="inlineStr"/>
+      <c r="D2105" t="inlineStr">
+        <is>
+          <t>1964K</t>
+        </is>
+      </c>
       <c r="E2105" t="inlineStr"/>
-      <c r="F2105" t="inlineStr"/>
-      <c r="G2105" t="inlineStr"/>
+      <c r="F2105" t="inlineStr">
+        <is>
+          <t>1967.0K</t>
+        </is>
+      </c>
+      <c r="G2105" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2106">
       <c r="A2106" t="inlineStr">
@@ -55132,83 +55168,67 @@
       </c>
       <c r="B2106" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJUL/05</t>
+          <t>Jobless Claims 4-week AverageJUL/05</t>
         </is>
       </c>
       <c r="C2106" t="inlineStr"/>
       <c r="D2106" t="inlineStr">
         <is>
-          <t>233K</t>
-        </is>
-      </c>
-      <c r="E2106" t="inlineStr">
-        <is>
-          <t>235K</t>
-        </is>
-      </c>
+          <t>241.5K</t>
+        </is>
+      </c>
+      <c r="E2106" t="inlineStr"/>
       <c r="F2106" t="inlineStr">
         <is>
-          <t>245.0K</t>
+          <t>243.0K</t>
         </is>
       </c>
       <c r="G2106" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2107">
       <c r="A2107" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2107" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsJUN/28</t>
+          <t>Fed Musalem Speech</t>
         </is>
       </c>
       <c r="C2107" t="inlineStr"/>
-      <c r="D2107" t="inlineStr">
-        <is>
-          <t>1964K</t>
-        </is>
-      </c>
+      <c r="D2107" t="inlineStr"/>
       <c r="E2107" t="inlineStr"/>
-      <c r="F2107" t="inlineStr">
-        <is>
-          <t>1967.0K</t>
-        </is>
-      </c>
+      <c r="F2107" t="inlineStr"/>
       <c r="G2107" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2108">
       <c r="A2108" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2108" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJUL/05</t>
+          <t>EIA Natural Gas Stocks ChangeJUL/04</t>
         </is>
       </c>
       <c r="C2108" t="inlineStr"/>
       <c r="D2108" t="inlineStr">
         <is>
-          <t>241.5K</t>
+          <t>55Bcf</t>
         </is>
       </c>
       <c r="E2108" t="inlineStr"/>
-      <c r="F2108" t="inlineStr">
-        <is>
-          <t>243.0K</t>
-        </is>
-      </c>
+      <c r="F2108" t="inlineStr"/>
       <c r="G2108" t="inlineStr">
         <is>
           <t>3</t>
@@ -55218,18 +55238,18 @@
     <row r="2109">
       <c r="A2109" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2109" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJUL/04</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2109" t="inlineStr"/>
       <c r="D2109" t="inlineStr">
         <is>
-          <t>55Bcf</t>
+          <t>4.240%</t>
         </is>
       </c>
       <c r="E2109" t="inlineStr"/>
@@ -55248,13 +55268,13 @@
       </c>
       <c r="B2110" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2110" t="inlineStr"/>
       <c r="D2110" t="inlineStr">
         <is>
-          <t>4.240%</t>
+          <t>4.300%</t>
         </is>
       </c>
       <c r="E2110" t="inlineStr"/>
@@ -55268,18 +55288,18 @@
     <row r="2111">
       <c r="A2111" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2111" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>15-Year Mortgage RateJUL/10</t>
         </is>
       </c>
       <c r="C2111" t="inlineStr"/>
       <c r="D2111" t="inlineStr">
         <is>
-          <t>4.300%</t>
+          <t>5.8%</t>
         </is>
       </c>
       <c r="E2111" t="inlineStr"/>
@@ -55298,13 +55318,13 @@
       </c>
       <c r="B2112" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateJUL/10</t>
+          <t>30-Year Mortgage RateJUL/10</t>
         </is>
       </c>
       <c r="C2112" t="inlineStr"/>
       <c r="D2112" t="inlineStr">
         <is>
-          <t>5.8%</t>
+          <t>6.67%</t>
         </is>
       </c>
       <c r="E2112" t="inlineStr"/>
@@ -55318,18 +55338,18 @@
     <row r="2113">
       <c r="A2113" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2113" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateJUL/10</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C2113" t="inlineStr"/>
       <c r="D2113" t="inlineStr">
         <is>
-          <t>6.67%</t>
+          <t>4.844%</t>
         </is>
       </c>
       <c r="E2113" t="inlineStr"/>
@@ -55343,37 +55363,33 @@
     <row r="2114">
       <c r="A2114" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>12:15 PM</t>
         </is>
       </c>
       <c r="B2114" t="inlineStr">
         <is>
-          <t>30-Year Bond Auction</t>
+          <t>Fed Waller Speech</t>
         </is>
       </c>
       <c r="C2114" t="inlineStr"/>
-      <c r="D2114" t="inlineStr">
-        <is>
-          <t>4.844%</t>
-        </is>
-      </c>
+      <c r="D2114" t="inlineStr"/>
       <c r="E2114" t="inlineStr"/>
       <c r="F2114" t="inlineStr"/>
       <c r="G2114" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2115">
       <c r="A2115" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2115" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJUL/09</t>
+          <t>Fed Daly Speech</t>
         </is>
       </c>
       <c r="C2115" t="inlineStr"/>
@@ -55382,61 +55398,57 @@
       <c r="F2115" t="inlineStr"/>
       <c r="G2115" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2116">
       <c r="A2116" t="inlineStr">
         <is>
-          <t>Friday July 11 2025</t>
-        </is>
-      </c>
-      <c r="B2116" t="inlineStr"/>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B2116" t="inlineStr">
+        <is>
+          <t>Fed Balance SheetJUL/09</t>
+        </is>
+      </c>
       <c r="C2116" t="inlineStr"/>
       <c r="D2116" t="inlineStr"/>
       <c r="E2116" t="inlineStr"/>
       <c r="F2116" t="inlineStr"/>
-      <c r="G2116" t="inlineStr"/>
+      <c r="G2116" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2117">
       <c r="A2117" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2117" t="inlineStr">
-        <is>
-          <t>WASDE Report</t>
-        </is>
-      </c>
+          <t>Friday July 11 2025</t>
+        </is>
+      </c>
+      <c r="B2117" t="inlineStr"/>
       <c r="C2117" t="inlineStr"/>
       <c r="D2117" t="inlineStr"/>
       <c r="E2117" t="inlineStr"/>
       <c r="F2117" t="inlineStr"/>
-      <c r="G2117" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2117" t="inlineStr"/>
     </row>
     <row r="2118">
       <c r="A2118" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2118" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJUL/11</t>
+          <t>WASDE Report</t>
         </is>
       </c>
       <c r="C2118" t="inlineStr"/>
-      <c r="D2118" t="inlineStr">
-        <is>
-          <t>425</t>
-        </is>
-      </c>
+      <c r="D2118" t="inlineStr"/>
       <c r="E2118" t="inlineStr"/>
       <c r="F2118" t="inlineStr"/>
       <c r="G2118" t="inlineStr">
@@ -55453,13 +55465,13 @@
       </c>
       <c r="B2119" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJUL/11</t>
+          <t>Baker Hughes Oil Rig CountJUL/11</t>
         </is>
       </c>
       <c r="C2119" t="inlineStr"/>
       <c r="D2119" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>425</t>
         </is>
       </c>
       <c r="E2119" t="inlineStr"/>
@@ -55473,49 +55485,61 @@
     <row r="2120">
       <c r="A2120" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2120" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementJUN</t>
+          <t>Baker Hughes Total Rigs CountJUL/11</t>
         </is>
       </c>
       <c r="C2120" t="inlineStr"/>
       <c r="D2120" t="inlineStr">
         <is>
-          <t>$-316B</t>
+          <t>539</t>
         </is>
       </c>
       <c r="E2120" t="inlineStr"/>
-      <c r="F2120" t="inlineStr">
-        <is>
-          <t>$-350.0B</t>
-        </is>
-      </c>
+      <c r="F2120" t="inlineStr"/>
       <c r="G2120" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2121">
       <c r="A2121" t="inlineStr">
         <is>
-          <t>Sunday July 13 2025</t>
-        </is>
-      </c>
-      <c r="B2121" t="inlineStr"/>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B2121" t="inlineStr">
+        <is>
+          <t>Monthly Budget StatementJUN</t>
+        </is>
+      </c>
       <c r="C2121" t="inlineStr"/>
-      <c r="D2121" t="inlineStr"/>
+      <c r="D2121" t="inlineStr">
+        <is>
+          <t>$-316B</t>
+        </is>
+      </c>
       <c r="E2121" t="inlineStr"/>
-      <c r="F2121" t="inlineStr"/>
-      <c r="G2121" t="inlineStr"/>
+      <c r="F2121" t="inlineStr">
+        <is>
+          <t>$-350.0B</t>
+        </is>
+      </c>
+      <c r="G2121" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2122">
       <c r="A2122" t="inlineStr">
         <is>
-          <t>Monday July 14 2025</t>
+          <t>Sunday July 13 2025</t>
         </is>
       </c>
       <c r="B2122" t="inlineStr"/>
@@ -55525,6 +55549,19 @@
       <c r="F2122" t="inlineStr"/>
       <c r="G2122" t="inlineStr"/>
     </row>
+    <row r="2123">
+      <c r="A2123" t="inlineStr">
+        <is>
+          <t>Monday July 14 2025</t>
+        </is>
+      </c>
+      <c r="B2123" t="inlineStr"/>
+      <c r="C2123" t="inlineStr"/>
+      <c r="D2123" t="inlineStr"/>
+      <c r="E2123" t="inlineStr"/>
+      <c r="F2123" t="inlineStr"/>
+      <c r="G2123" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
